--- a/proj1/sample_output/marksheet/1401EE40.xlsx
+++ b/proj1/sample_output/marksheet/1401EE40.xlsx
@@ -661,12 +661,12 @@
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>120.0</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D12" s="9" t="n"/>
